--- a/test1.xlsx
+++ b/test1.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub_my\hyr_xu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nt_tangweinan\Desktop\新しいフォルダー\hyr_xu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5379B123-72A4-4B89-AD91-14D9D5EB257C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="21825" windowHeight="14025"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,16 +24,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>test</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>twn</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -352,16 +355,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/test1.xlsx
+++ b/test1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nt_tangweinan\Desktop\新しいフォルダー\hyr_xu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub_my\hyr_xu\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC17D7F6-F385-4D30-A595-2DB447E424BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="21825" windowHeight="14025"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>test</t>
     <phoneticPr fontId="1"/>
@@ -33,11 +34,15 @@
     <t>twn</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>aa</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -355,14 +360,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -374,6 +379,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
